--- a/regions/11/vachroba/vachroba.xlsx
+++ b/regions/11/vachroba/vachroba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="6360" windowWidth="22695" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22830" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,11 +67,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -124,34 +139,16 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,14 +191,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -210,25 +207,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -548,27 +541,30 @@
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -587,9 +583,10 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" s="6" customFormat="1">
-      <c r="A3" s="13"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" s="6" customFormat="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>2006</v>
       </c>
@@ -635,595 +632,655 @@
       <c r="P3" s="4">
         <v>2020</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="Q3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2022</v>
+      </c>
       <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" s="6" customFormat="1">
-      <c r="A4" s="14" t="s">
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" s="6" customFormat="1">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>152.80000000000001</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>9.5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>4.5</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>18.600000000000001</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>13.5</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>37.799999999999997</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>45.7</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>109.5</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>142</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>184.9</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <v>147.19999999999999</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="8">
         <v>181.14420000000001</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="8">
         <v>205</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="8">
         <v>276.8</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="8">
         <v>280.5</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="Q4" s="8">
+        <v>604.20000000000005</v>
+      </c>
+      <c r="R4" s="8">
+        <v>753</v>
+      </c>
       <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" s="6" customFormat="1">
-      <c r="A5" s="14" t="s">
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" s="6" customFormat="1">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>21.9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>0.6</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>2.4</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>1.8</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>5.3</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>8.1</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>13.8</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>16.7</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>36.6</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <v>22.2</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="8">
         <v>28.33372</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="8">
         <v>35.1</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="8">
         <v>52.1</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="8">
         <v>50.2</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="Q5" s="8">
+        <v>86.6</v>
+      </c>
+      <c r="R5" s="8">
+        <v>111.8</v>
+      </c>
       <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" s="6" customFormat="1">
-      <c r="A6" s="14" t="s">
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" s="6" customFormat="1">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>701</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>375</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>143</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <v>303</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <v>268</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>266</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>574</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <v>815</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <v>1028</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="9">
         <v>1947</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="9">
         <v>1435</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <v>1627.0629899999999</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="9">
         <v>1767</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="9">
         <v>2236</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="9">
         <v>1669</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="Q6" s="9">
+        <v>2722</v>
+      </c>
+      <c r="R6" s="9">
+        <v>2796</v>
+      </c>
       <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" s="6" customFormat="1">
-      <c r="A7" s="14" t="s">
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" s="6" customFormat="1">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>424</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>195</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>21</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>209</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <v>135</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>220</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <v>532</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <v>713</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="9">
         <v>763</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="9">
         <v>1495</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="9">
         <v>1060</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="9">
         <v>1076.05702</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="9">
         <v>1196</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="9">
         <v>1259</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="9">
         <v>1157</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="Q7" s="9">
+        <v>1944</v>
+      </c>
+      <c r="R7" s="9">
+        <v>2277</v>
+      </c>
       <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" s="6" customFormat="1">
-      <c r="A8" s="14" t="s">
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" s="6" customFormat="1">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>394</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>63.1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>274.89999999999998</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>224.9</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>214.6</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>387.4</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>244.4</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>503.2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="8">
         <v>491.3</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="8">
         <v>483.4</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="8">
         <v>482.2</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="8">
         <v>684.52500499999996</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="8">
         <v>766.6</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="8">
         <v>772</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="8">
         <v>955.1</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="Q8" s="8">
+        <v>1098</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1283.3</v>
+      </c>
       <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" s="6" customFormat="1">
-      <c r="A9" s="14" t="s">
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" s="6" customFormat="1">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>4.8</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>0.2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>0.2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>0.3</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>0.4</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>1.3</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>4.3</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="8">
         <v>3.5</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <v>6.4</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="8">
         <v>5</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="8">
         <v>7.6621699999999997</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="8">
         <v>11.7</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="8">
         <v>13.3</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="8">
         <v>12.4</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="Q9" s="8">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="R9" s="8">
+        <v>32.5</v>
+      </c>
       <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" s="6" customFormat="1">
-      <c r="A10" s="14" t="s">
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" s="6" customFormat="1">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>2.4</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>0.2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>0.1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>0.6</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>0.3</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>1.6</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>4.3</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="8">
         <v>4.5</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="8">
         <v>6.1</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="8">
         <v>8.8390699999999995</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="8">
         <v>11</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="8">
         <v>11.9</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="8">
         <v>13.5</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="Q10" s="8">
+        <v>26.1</v>
+      </c>
+      <c r="R10" s="8">
+        <v>35.5</v>
+      </c>
       <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" s="6" customFormat="1">
-      <c r="A11" s="14" t="s">
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" s="6" customFormat="1">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>17.100000000000001</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>0.8</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>0.5</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>2.1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>1.4</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>4</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>6.1</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>9.5</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>13.2</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <v>30.1</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="8">
         <v>17.2</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="8">
         <v>20.671610000000001</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="8">
         <v>23.4</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="8">
         <v>38.9</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="8">
         <v>37.799999999999997</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="Q11" s="8">
+        <v>51.3</v>
+      </c>
+      <c r="R11" s="8">
+        <v>79.3</v>
+      </c>
       <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" s="6" customFormat="1">
-      <c r="A12" s="14" t="s">
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" s="6" customFormat="1">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>3.8</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>0.3</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>7</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>2</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
         <v>1.3</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="8">
         <v>0.7</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="8">
         <v>1.8</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="8">
         <v>1.4399500000000001</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="8">
         <v>5.7</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="8">
         <v>1.5</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="Q12" s="8">
+        <v>12.4</v>
+      </c>
+      <c r="R12" s="8">
+        <v>6.7</v>
+      </c>
       <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" s="6" customFormat="1">
-      <c r="A13" s="14" t="s">
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" s="6" customFormat="1">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>10.3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>3.9</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>16.600000000000001</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>12</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>34.299999999999997</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>41</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>104.5</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
         <v>130.9</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="8">
         <v>157.9</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="8">
         <v>134.80000000000001</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="8">
         <v>165.19929999999999</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="8">
         <v>193.3</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="8">
         <v>249</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="8">
         <v>256.60000000000002</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="Q13" s="8">
+        <v>574.5</v>
+      </c>
+      <c r="R13" s="8">
+        <v>684</v>
+      </c>
       <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" s="6" customFormat="1">
-      <c r="A14" s="14" t="s">
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" s="6" customFormat="1">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>10.1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>3.8</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>16.2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>11.7</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>33.1</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>39.299999999999997</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>100.4</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="8">
         <v>127.8</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="8">
         <v>152</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="8">
         <v>130.30000000000001</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="8">
         <v>157.67612</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="8">
         <v>182.1</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="8">
         <v>236</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="8">
         <v>244.6</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="Q14" s="8">
+        <v>541.20000000000005</v>
+      </c>
+      <c r="R14" s="8">
+        <v>655.20000000000005</v>
+      </c>
       <c r="S14" s="5"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="15"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="10"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1242,62 +1299,63 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" s="10" customFormat="1" ht="13.5">
-      <c r="A16" s="16" t="s">
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" s="13" customFormat="1" ht="12.75">
+      <c r="A16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15" s="10" customFormat="1" ht="13.5">
-      <c r="A17" s="16" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" s="13" customFormat="1" ht="12.75">
+      <c r="A17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="15"/>
+      <c r="A18" s="10"/>
     </row>
     <row r="34" spans="7:8">
-      <c r="G34" s="11"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="38" spans="7:8">
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="7:8">
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regions/11/vachroba/vachroba.xlsx
+++ b/regions/11/vachroba/vachroba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22830" windowHeight="8850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+      <selection activeCell="S3" sqref="S3:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -541,7 +541,7 @@
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -562,8 +562,9 @@
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="S1" s="15"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -584,8 +585,9 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" s="6" customFormat="1">
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" s="6" customFormat="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>2006</v>
@@ -638,10 +640,13 @@
       <c r="R3" s="4">
         <v>2022</v>
       </c>
-      <c r="S3" s="5"/>
+      <c r="S3" s="4">
+        <v>2023</v>
+      </c>
       <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" s="6" customFormat="1">
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -696,10 +701,13 @@
       <c r="R4" s="8">
         <v>753</v>
       </c>
-      <c r="S4" s="5"/>
+      <c r="S4" s="8">
+        <v>810.5</v>
+      </c>
       <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" s="6" customFormat="1">
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" s="6" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -754,10 +762,13 @@
       <c r="R5" s="8">
         <v>111.8</v>
       </c>
-      <c r="S5" s="5"/>
+      <c r="S5" s="8">
+        <v>135.19999999999999</v>
+      </c>
       <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" s="6" customFormat="1">
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" s="6" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -812,10 +823,13 @@
       <c r="R6" s="9">
         <v>2796</v>
       </c>
-      <c r="S6" s="5"/>
+      <c r="S6" s="9">
+        <v>3146</v>
+      </c>
       <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" s="6" customFormat="1">
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21" s="6" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -870,10 +884,13 @@
       <c r="R7" s="9">
         <v>2277</v>
       </c>
-      <c r="S7" s="5"/>
+      <c r="S7" s="9">
+        <v>2339</v>
+      </c>
       <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" s="6" customFormat="1">
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" s="6" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -928,10 +945,13 @@
       <c r="R8" s="8">
         <v>1283.3</v>
       </c>
-      <c r="S8" s="5"/>
+      <c r="S8" s="8">
+        <v>1503.1</v>
+      </c>
       <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" s="6" customFormat="1">
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" s="6" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -986,10 +1006,13 @@
       <c r="R9" s="8">
         <v>32.5</v>
       </c>
-      <c r="S9" s="5"/>
+      <c r="S9" s="8">
+        <v>41.9</v>
+      </c>
       <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" s="6" customFormat="1">
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" s="6" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -1044,10 +1067,13 @@
       <c r="R10" s="8">
         <v>35.5</v>
       </c>
-      <c r="S10" s="5"/>
+      <c r="S10" s="8">
+        <v>42.8</v>
+      </c>
       <c r="T10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" s="6" customFormat="1">
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" s="6" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1102,10 +1128,13 @@
       <c r="R11" s="8">
         <v>79.3</v>
       </c>
-      <c r="S11" s="5"/>
+      <c r="S11" s="8">
+        <v>93.3</v>
+      </c>
       <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" s="6" customFormat="1">
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" s="6" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1160,10 +1189,13 @@
       <c r="R12" s="8">
         <v>6.7</v>
       </c>
-      <c r="S12" s="5"/>
+      <c r="S12" s="8">
+        <v>5.9</v>
+      </c>
       <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" s="6" customFormat="1">
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" s="6" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -1218,10 +1250,13 @@
       <c r="R13" s="8">
         <v>684</v>
       </c>
-      <c r="S13" s="5"/>
+      <c r="S13" s="8">
+        <v>746</v>
+      </c>
       <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" s="6" customFormat="1">
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" s="6" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
@@ -1276,10 +1311,13 @@
       <c r="R14" s="8">
         <v>655.20000000000005</v>
       </c>
-      <c r="S14" s="5"/>
+      <c r="S14" s="8">
+        <v>704.7</v>
+      </c>
       <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="10"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1300,8 +1338,9 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" s="13" customFormat="1" ht="12.75">
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" s="13" customFormat="1" ht="12.75">
       <c r="A16" s="11" t="s">
         <v>4</v>
       </c>
@@ -1355,7 +1394,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
